--- a/GHEtool/Validation/short_term_effects_validation/Three_buildings/L4_vs_L4_short_term_effects.xlsx
+++ b/GHEtool/Validation/short_term_effects_validation/Three_buildings/L4_vs_L4_short_term_effects.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workdir\Develop\ghetool\GHEtool\Validation\short_term_effects_validation\Three_buildings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/lone_meertens_kuleuven_be/Documents/Wetenschappelijk Onderzoek/SEEDS/Borefield/short term effects validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97F4877-9240-4022-AE8D-BCB284A9F63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1344" documentId="8_{5622DAE0-6CBE-4EC2-B67E-2B13B8CE269F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B96EA0C5-D291-4509-A3D4-A0F20BAAC86F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D87B58-08C8-44A9-8B5F-58FA609974DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{44D87B58-08C8-44A9-8B5F-58FA609974DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="3" r:id="rId1"/>
     <sheet name="Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="L4vsL4ste" sheetId="5" r:id="rId3"/>
+    <sheet name="Modelica" sheetId="4" r:id="rId4"/>
+    <sheet name="GHEvsMod" sheetId="6" r:id="rId5"/>
+    <sheet name="Results" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,8 +40,141 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={849C6A60-C145-48F5-A612-D616B829090F}</author>
+    <author>tc={48975FC8-3E6C-469D-8055-608309B59916}</author>
+  </authors>
+  <commentList>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{849C6A60-C145-48F5-A612-D616B829090F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Adapt for Journal paper, wrong in conference paper</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{48975FC8-3E6C-469D-8055-608309B59916}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add this in journal paper, only used in GHEtool L4 ste (not in modelica)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lone Meertens</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{C0E23A55-E658-48B3-BDF8-C8648BF9B48A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Lone Meertens:
+NOT possible due to high cooling load (limited by Tmax) --&gt; GHEtool.VariableClasses.BaseClass.UnsolvableDueToTemperatureGradient: No solution can be found due to the temperature gradient. Please increase the field size
+Gradient 2.2 still possible, but 3 is too much</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AB529D0D-DA8A-46C8-B5A3-C1A42F330BCE}</author>
+    <author>Lone Meertens</author>
+  </authors>
+  <commentList>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{AB529D0D-DA8A-46C8-B5A3-C1A42F330BCE}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Wrong results, using AntiFreeze instead of water as HTF in boreholes. How can this big difference be explained??
+</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{9AA56C20-8DF7-47C1-818C-5A95ADF67DF9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Lone Meertens:
+Case dependent
+- case 1: flux = 0
+- case 2/4: flux = 0.02
+- case 3/5: flux = 0.06</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="103">
+  <si>
+    <t>GHEtool is an open-source Python package designed for borefield sizing and temperature evolution evaluation . Currently, this tool employs the steady-state equivalent resistance method to calculate the heat transfer from the fluid to the borehole wall, which neglects the thermal capacity of the fluid, pipe, and grout. Consequently, heat is transferred immediately, without delay, from the fluid to the borehole wall, leading to an overestimation of the heat transfer peak to the surrounding ground. This often results in an oversized borefield, particularly for geothermal load profiles with high peak load variability.
+Meertens et al. [2] examined the impact of two short-term dynamic effects on borehole sizing and their significance for different geothermal load profiles. The first effect involved applying the cylindrical borehole correction of Li et al. [3], which extends the finite line model (currently used in GHEtool for calculating g-functions) to an infinite hollow cylinder within an infinite volume. This introduces a more realistic heat exchange surface between the borehole wall and the ground. The second effect investigated the replacement of the equivalent thermal resistance method with a dynamic model to describe the heat transfer within boreholes over small time scales. For this purpose, they used the 1D explicit numerical model of Xu and Spitler [4].
+Their findings indicated that incorporating only the cylindrical borehole correction without considering any dynamic behavior results in a worse approximation than the base model implemented in GHEtool. Conversely, utilizing the dynamic model for small time scales provides the best approximation for heat transfer from the fluid to the ground. The relevance of this effect is highly dependent on the geothermal load profile; it significantly influences borefield size when the load profile exhibits high peak load variability. However, when the sizing is dominated by a large imbalance in the load profile, the effect is minimal.
+This paper introduces a comprehensive model that integrates the two aforementioned effects and compares it to the base model in GHEtool, as well as to sizing performed using the dynamic IBPSA borehole simulation model in Modelica.</t>
+  </si>
+  <si>
+    <t>References:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Peere, W., Blanke, T.(2022). GHEtool: An open-source tool for borefield sizing in Python. Journal of Open Source Software, 7(76), 4406, https://doi.org/10.21105/joss.04406 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2] Meertens, L., Peere, W., and Helsen, L. (2024). Influence of short-term dynamic effects on geothermal borefield size. 
+In _Proceedings of International Ground Source Heat Pump Association Conference 2024_. Montreal (Canada), 28-30 May 2024. 
+https://doi.org/10.22488/okstate.24.000004 </t>
+  </si>
+  <si>
+    <t>[3] Li et al</t>
+  </si>
+  <si>
+    <t>[4] Xu &amp; Spitler</t>
+  </si>
+  <si>
+    <t>[x] Peere, W., L. Hermans, W. Boydens, and L. Helsen. 2023. Evaluation of the oversizing and computational speed of different
+open-source borefield sizing methods. BS2023 Conference, Shanghai, China, April</t>
+  </si>
+  <si>
+    <t>Summary of borefield parameters used for sizing</t>
+  </si>
+  <si>
+    <t>Yearly demand [MWh] and peak demand [kW] for the three different buildings</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
   <si>
     <t>Auditorium</t>
   </si>
@@ -48,22 +185,265 @@
     <t>Swimming pool</t>
   </si>
   <si>
+    <t>Borehole radius</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Borehole burial depth</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Borehole spacing</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>Inner pipe radius</t>
+  </si>
+  <si>
+    <t>Pipe spacing</t>
+  </si>
+  <si>
+    <t>Outer pipe radius</t>
+  </si>
+  <si>
+    <t>Ground conductivity</t>
+  </si>
+  <si>
+    <t>W/mK</t>
+  </si>
+  <si>
+    <t>Ground vol. heat capacity</t>
+  </si>
+  <si>
+    <t>MJ/m^3K</t>
+  </si>
+  <si>
+    <t>Undisturbed Ground temp.</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Ground heat flux</t>
+  </si>
+  <si>
+    <t>case dep.</t>
+  </si>
+  <si>
+    <t>W/m^2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 2/4</t>
+  </si>
+  <si>
+    <t>Case 3/5</t>
+  </si>
+  <si>
+    <t>Soil specific heat capacity</t>
+  </si>
+  <si>
+    <t>J/kgK</t>
+  </si>
+  <si>
+    <t>Soil density</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>Grout conductivity</t>
+  </si>
+  <si>
+    <t>Grout vol. heat capacity</t>
+  </si>
+  <si>
+    <t>Grout specific heat capacity</t>
+  </si>
+  <si>
+    <t>Grout density</t>
+  </si>
+  <si>
+    <t>Pipe conductivity</t>
+  </si>
+  <si>
+    <t>W/kK</t>
+  </si>
+  <si>
+    <t>Pipe vol. heat capacity</t>
+  </si>
+  <si>
+    <t>Heat exchanger type</t>
+  </si>
+  <si>
+    <t>Double U-tube</t>
+  </si>
+  <si>
+    <t>Auditorium parameters</t>
+  </si>
+  <si>
+    <t>Borefield configuration</t>
+  </si>
+  <si>
+    <t>5x4</t>
+  </si>
+  <si>
+    <t>Borefield HTF mass flow rate</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>Office parameters</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>Swimming pool parameters</t>
+  </si>
+  <si>
+    <t>15x20</t>
+  </si>
+  <si>
+    <t>Input variables</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Building load profile</t>
+  </si>
+  <si>
+    <t>Grounddata case</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>L [m]</t>
+  </si>
+  <si>
+    <t>Rb*</t>
+  </si>
+  <si>
+    <t>Tg [°C]</t>
+  </si>
+  <si>
+    <t>Time [s]</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L4 ste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4 </t>
+  </si>
+  <si>
+    <t>ground temp. case</t>
+  </si>
+  <si>
+    <t>L_start [m]</t>
+  </si>
+  <si>
+    <t>T_L [°C]</t>
+  </si>
+  <si>
+    <t>T_H [°C]</t>
+  </si>
+  <si>
+    <t>T_g [°C]</t>
+  </si>
+  <si>
+    <t>lifetime [years]</t>
+  </si>
+  <si>
+    <t>use_Rb</t>
+  </si>
+  <si>
+    <t>solver</t>
+  </si>
+  <si>
+    <t>Integration step</t>
+  </si>
+  <si>
+    <t>Tmin [°C]</t>
+  </si>
+  <si>
+    <t>Tmax [°C]</t>
+  </si>
+  <si>
+    <t>number of iterations</t>
+  </si>
+  <si>
+    <t>time needed for sizing [min]</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Euler</t>
+  </si>
+  <si>
+    <t>10+grad</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>Using constant ground temperature equal to 10°C</t>
+  </si>
+  <si>
+    <t>Using gradient (0.01 K/m for case 2 and 0.02K/m for case3) with surface temp of 10°C</t>
+  </si>
+  <si>
+    <t>Using constant ground temperature model and update Tg each iteration with _Tg (average Tg) from GHEtool (same gradients as above)</t>
+  </si>
+  <si>
+    <t>Ground Temperature Case</t>
+  </si>
+  <si>
+    <t>Resulting size L [m]</t>
+  </si>
+  <si>
+    <t>Relative difference (L4-Lmodelica)/Lmodelica</t>
+  </si>
+  <si>
+    <t>Lmod</t>
+  </si>
+  <si>
+    <t>L4 GHEtool standard</t>
+  </si>
+  <si>
+    <t>tijd [s]</t>
+  </si>
+  <si>
+    <t>Rb* [m.K/W]</t>
+  </si>
+  <si>
+    <t>L4 Dynamic model switching to FLS+CC</t>
+  </si>
+  <si>
     <t>tswitch [h]</t>
-  </si>
-  <si>
-    <t>L4 Dynamic model switching to FLS+CC</t>
-  </si>
-  <si>
-    <t>L4 GHEtool standard</t>
-  </si>
-  <si>
-    <t>L [m]</t>
-  </si>
-  <si>
-    <t>tijd [s]</t>
-  </si>
-  <si>
-    <t>Rb* [m.K/W]</t>
   </si>
   <si>
     <t>Modelica</t>
@@ -73,7 +453,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,8 +464,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +519,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -360,25 +802,819 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,12 +1633,373 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE08989"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -415,6 +2012,1233 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Afbeelding 5" descr="A graph with blue and orange lines&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609C951F-0437-6B58-7DE2-08F3EBE577EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="1447800"/>
+          <a:ext cx="4572000" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Afbeelding 6" descr="A graph with blue and orange lines&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD89D4E-66E6-7F69-93C5-3F5356CE2AE0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{609C951F-0437-6B58-7DE2-08F3EBE577EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="1428750"/>
+          <a:ext cx="4572000" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Afbeelding 7" descr="A graph of a graph showing a number of different layers&#10;&#10;Description automatically generated with medium confidence">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A51367-B8D5-FD7F-CF2F-EC54503A4D2D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CDD89D4E-66E6-7F69-93C5-3F5356CE2AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="3609975"/>
+          <a:ext cx="4572000" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Tekstvak 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9D33BA-D55E-D2A7-90F2-3EEA485D941A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="104775"/>
+          <a:ext cx="8534400" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Ground temperature cases</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1. Constant ground temperature</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2. Gradient of 1 K/100m in ground temperature = Geothermal heat flux of 0.03 W/m^2 (gradient/100 * k_s = 0.01 K/m * 3 W/mK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3. Gradient of 2 K/100m in ground temperature = Geothermal heat flux of 0.06 W/m^2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4. Gradient of 3 K/100m in ground temperature = Geothermal heat flux of 0.09 W/m^2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Relationship gradient and geothermal heat flux:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>geothermal gradient is equal to the geothermal heat flux divided by the  Ground thermal conductivity k_s [W/mK] --&gt; k_s = 3 W/mK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Example 3) gradient = 0.06 W/m^2 / (3 W/mK) = 0.02 K/m = 2 K/100m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Tekstvak 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47073CCA-8031-4F81-BC6D-E842E243202F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BE9D33BA-D55E-D2A7-90F2-3EEA485D941A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="1962150"/>
+          <a:ext cx="7324725" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Unsolved Questions:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1. Why Modelica gives bigger sizes when using constant ground temperature?? (Should expext lower, since dynamic behavior is taken into account and ground behaviour is the same)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2. Sizing with geothermal flux in GHEtool and then taken _Tg (average ground temperature) as input into constant ground temperature model in modelica. Is this accurate?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstvak 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD6D61F-16E0-02B7-736E-B4DC23AD553B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{47073CCA-8031-4F81-BC6D-E842E243202F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733925" y="3552825"/>
+          <a:ext cx="3352800" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>To Do's </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Modelica:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>*definitie g-functie: tov boorgatwand of grond?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>* gradient model</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>* constante temperatuuur (grondtemperatuur zelf uitrekenen)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>g-functie</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>* aanname constante boorgatwand temperatuur </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>* Dus gradient in rekening nemen niet correct.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Tekstvak 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9610C2D8-223D-4992-A52D-55D9F3A7B56B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="304800"/>
+          <a:ext cx="3876675" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Ground temperature cases</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1. Constant ground temperature</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2. Gradient of 1 K/100m in ground temperature (gradient model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3. Geothermal heat flux of 0.06 W/m^2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4. Equivalent method (cst model) for gradient 1 K/100m </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5. Equivalent method (cst model) for gradient 2 K/100m = 0.06 W/m^m flux</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Tekstvak 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B3DFF9-BC1D-CC4C-0E95-B9F6D5A5AEE6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9610C2D8-223D-4992-A52D-55D9F3A7B56B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="1809750"/>
+          <a:ext cx="3914775" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Prelimanary Conclusions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1. Very good estimated guess is needed to reduce number of iterations and consequently time needed for sizing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstvak 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1198EA-EE11-8475-8201-5D2A6D9C061B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{36B3DFF9-BC1D-CC4C-0E95-B9F6D5A5AEE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="2686050"/>
+          <a:ext cx="4038600" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Lessons Learnt:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1. Use Water no AntiFreeze as HTF in boreholes, Antifreeze gives very wrong results (see right) (why?). For constant temperature case the following required lenghts were obtained with anaitfreeze: 162.9, 192.2 and 358.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2. Use small enough integration time step when using Euler (30s is aalready to big sometimes, get stuck in fluid temperature minimal constraint)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstvak 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2FA539-9A4B-26D8-95C6-8D8CF09E9AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="533400"/>
+          <a:ext cx="5486400" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Opmerkingen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1) L4 ste bevat cilindrische correctie (ook voor lange termijn), g-functie dus niet hetzelfde op lange termijn als L4. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2) Resultaten voor Lmod (case 2) momenteel obv gradient model. Deze verondersteld verschillende Tb en neemt dan gemiddelde? Dit gaat in tegen de definite van g-functie (constante boorgatwandtemperatuur), reproduceer resultaten met constant grondtemepratuur model met update obv GHEtool</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3) Hoe lost GHEtool het probleem in 2) eigenlijk op?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -503,274 +3327,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419676</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D64EA2-5D98-3DBF-4D8C-4CAEF42ADC1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="480060" y="502920"/>
-          <a:ext cx="6645216" cy="2766300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F13867-1DCF-0E06-6F0D-EFB9F8680C2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7658100" y="464820"/>
-          <a:ext cx="6080760" cy="3169920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The different L4-model inclusing the short-term effects is validated based on three different buildings: an auditorium, an office and a swimming</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pool. The three buildings were simulated previously in IESVE and the resulting heating and cooling demand profiles</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>were exported (Peere et al., 2023). </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>References:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-----------</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    - Meertens, L., Peere, W., and Helsen, L. (2024). Influence of short-term dynamic effects on geothermal borefield size. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>In _Proceedings of International Ground Source Heat Pump Association Conference 2024_. Montreal (Canada), 28-30 May 2024. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>https://doi.org/10.22488/okstate.24.000004 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    - Peere, W., L. Hermans, W. Boydens, and L. Helsen. 2023. Evaluation of the oversizing and computational speed of different</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>open-source borefield sizing methods. BS2023 Conference, Shanghai, China, April</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-BE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Lone Meertens" id="{5AEF3CBA-AC04-47AF-AA67-1AC6920ED0F5}" userId="S::lone.meertens@kuleuven.be::e3cb755d-0715-4b64-873b-7e6884f68fb0" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1068,253 +3628,2702 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B20" dT="2024-07-07T06:32:02.47" personId="{5AEF3CBA-AC04-47AF-AA67-1AC6920ED0F5}" id="{849C6A60-C145-48F5-A612-D616B829090F}">
+    <text>Adapt for Journal paper, wrong in conference paper</text>
+  </threadedComment>
+  <threadedComment ref="B23" dT="2024-07-07T06:32:38.87" personId="{5AEF3CBA-AC04-47AF-AA67-1AC6920ED0F5}" id="{48975FC8-3E6C-469D-8055-608309B59916}">
+    <text>Add this in journal paper, only used in GHEtool L4 ste (not in modelica)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AA2" dT="2024-07-05T10:41:08.75" personId="{5AEF3CBA-AC04-47AF-AA67-1AC6920ED0F5}" id="{AB529D0D-DA8A-46C8-B5A3-C1A42F330BCE}">
+    <text xml:space="preserve">Wrong results, using AntiFreeze instead of water as HTF in boreholes. How can this big difference be explained??
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963B1987-BEB2-4A64-914E-43D4464ACA27}">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD25F05B-4129-4C97-9F7D-1909F11D0E17}">
+  <dimension ref="A2:A11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="171.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="256.5" customHeight="1">
+      <c r="A2" s="171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="45.75">
+      <c r="A7" s="90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30.75">
+      <c r="A11" s="90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC73191E-3939-4283-8B50-B1DE03F771C3}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="7" max="9" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="174"/>
+      <c r="E1" s="172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="182"/>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="157" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="157">
+        <v>75</v>
+      </c>
+      <c r="C3" s="156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="56">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H3" s="56">
+        <v>117.6</v>
+      </c>
+      <c r="I3" s="163">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
+      <c r="A4" s="158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="158">
+        <v>4</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="183"/>
+      <c r="F4" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="56">
+        <v>3.86</v>
+      </c>
+      <c r="H4" s="56">
+        <v>118.3</v>
+      </c>
+      <c r="I4" s="75">
+        <v>41.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="158" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="158">
+        <v>6</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="56">
+        <v>32</v>
+      </c>
+      <c r="H5" s="56">
+        <v>214</v>
+      </c>
+      <c r="I5" s="75">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15">
+      <c r="A6" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="158">
+        <v>15</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="184"/>
+      <c r="F6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="17">
+        <v>90</v>
+      </c>
+      <c r="H6" s="17">
+        <v>371</v>
+      </c>
+      <c r="I6" s="18">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="158">
+        <v>50</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="158" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="158">
+        <v>20</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="158">
+        <v>3</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15">
+      <c r="A10" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="158">
+        <v>2.4</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="158" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="158">
+        <v>10</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="158" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="158" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="167" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="158">
+        <v>0</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="158">
+        <v>0.03</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="158">
+        <v>0.06</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="158" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="158">
+        <v>1238</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="158">
+        <v>1940</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="158" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="158">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="158" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="158">
+        <v>3.9</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="158" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="168">
+        <v>1925</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="168">
+        <v>2026</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="158" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="158">
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="161" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="169">
+        <v>1.54</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="175" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="176"/>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="177" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="178"/>
+      <c r="C25" s="176"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="155" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="156"/>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="28">
+        <v>4</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="177" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="179"/>
+      <c r="C28" s="180"/>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="155" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="156"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="28">
+        <v>20</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.45" customHeight="1">
+      <c r="A31" s="177" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="179"/>
+      <c r="C31" s="180"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="155" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="156"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="17">
+        <v>60</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A31:C31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA1A47D-79D8-448A-89F0-43A3BE94BC30}">
+  <dimension ref="A3:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7">
+      <c r="A3" s="191" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="191" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
+    </row>
+    <row r="4" spans="1:7" ht="30.75">
+      <c r="A4" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="185">
+        <v>1</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="22">
+        <v>126.83</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F5" s="21">
+        <v>10</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="196"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="27">
+        <v>99.15</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F6" s="28">
+        <v>10</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="196"/>
+      <c r="B7" s="185">
+        <v>2</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="22">
+        <v>143.99</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="21">
+        <v>10.719937</v>
+      </c>
+      <c r="G7" s="23">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="196"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="27">
+        <v>107.93</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F8" s="28">
+        <v>10.539662699999999</v>
+      </c>
+      <c r="G8" s="29">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="196"/>
+      <c r="B9" s="187">
+        <v>3</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="22">
+        <v>184.27</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="F9" s="21">
+        <v>11.84273636</v>
+      </c>
+      <c r="G9" s="23">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="196"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="16">
+        <v>121.36</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F10" s="17">
+        <v>11.21362046</v>
+      </c>
+      <c r="G10" s="18">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="196"/>
+      <c r="B11" s="189">
+        <v>4</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="197"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="185">
+        <v>1</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="22">
+        <v>134.93</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F13" s="21">
+        <v>10</v>
+      </c>
+      <c r="G13" s="23">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="196"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="27">
+        <v>126.27</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F14" s="28">
+        <v>10</v>
+      </c>
+      <c r="G14" s="29">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="196"/>
+      <c r="B15" s="185">
+        <v>2</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="22">
+        <v>155.02000000000001</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.152</v>
+      </c>
+      <c r="F15" s="21">
+        <v>10.775076</v>
+      </c>
+      <c r="G15" s="23">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="196"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="27">
+        <v>142.63</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="28">
+        <v>10.7131729</v>
+      </c>
+      <c r="G16" s="29">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="196"/>
+      <c r="B17" s="187">
+        <v>3</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="22">
+        <v>209.25</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F17" s="21">
+        <v>12.09245849</v>
+      </c>
+      <c r="G17" s="23">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="196"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="16">
+        <v>176.06</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.157</v>
+      </c>
+      <c r="F18" s="17">
+        <v>11.760642000000001</v>
+      </c>
+      <c r="G18" s="18">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="196"/>
+      <c r="B19" s="189">
+        <v>4</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="197"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="185">
+        <v>1</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="22">
+        <v>349.46</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.219</v>
+      </c>
+      <c r="F21" s="21">
+        <v>10</v>
+      </c>
+      <c r="G21" s="23">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="196"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="27">
+        <v>347.27</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0.218</v>
+      </c>
+      <c r="F22" s="28">
+        <v>10</v>
+      </c>
+      <c r="G22" s="29">
+        <v>31.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="196"/>
+      <c r="B23" s="185">
+        <v>2</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="22">
+        <v>277.85000000000002</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="F23" s="21">
+        <v>11.389241</v>
+      </c>
+      <c r="G23" s="23">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="196"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="27">
+        <v>275.87</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0.189</v>
+      </c>
+      <c r="F24" s="28">
+        <v>11.379370400000001</v>
+      </c>
+      <c r="G24" s="29">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="196"/>
+      <c r="B25" s="185">
+        <v>3</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="35">
+        <v>240.57</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F25" s="21">
+        <v>12.4056924925</v>
+      </c>
+      <c r="G25" s="23">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="196"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="36">
+        <v>239.86</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F26" s="28">
+        <v>12.3985936</v>
+      </c>
+      <c r="G26" s="29">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="196"/>
+      <c r="B27" s="199">
+        <v>4</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="22">
+        <v>215.14</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F27" s="21">
+        <v>13.227025360000001</v>
+      </c>
+      <c r="G27" s="23">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="197"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="16">
+        <v>214.62</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F28" s="17">
+        <v>13.219237059999999</v>
+      </c>
+      <c r="G28" s="18">
+        <v>6.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E59E4A1-8053-4F13-8590-66E120D979F4}">
+  <dimension ref="A2:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="12" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:31">
+      <c r="A2" s="203" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="203" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="204"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+    </row>
+    <row r="3" spans="1:31" ht="60.75">
+      <c r="A3" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="90"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="205">
+        <v>1</v>
+      </c>
+      <c r="C4" s="93">
+        <v>100</v>
+      </c>
+      <c r="D4" s="78">
+        <v>3</v>
+      </c>
+      <c r="E4" s="78">
+        <v>17</v>
+      </c>
+      <c r="F4" s="78">
+        <v>10</v>
+      </c>
+      <c r="G4" s="78">
+        <v>20</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="94">
+        <v>15</v>
+      </c>
+      <c r="K4" s="95">
+        <v>88.366600000000005</v>
+      </c>
+      <c r="L4" s="96">
+        <v>5.8853087999999998</v>
+      </c>
+      <c r="M4" s="96">
+        <v>16.999658199999999</v>
+      </c>
+      <c r="N4" s="97">
+        <v>4</v>
+      </c>
+      <c r="O4" s="98">
+        <f>405.6189/60</f>
+        <v>6.7603150000000003</v>
+      </c>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="72"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="202"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="116">
+        <v>150</v>
+      </c>
+      <c r="D5" s="107">
+        <v>3</v>
+      </c>
+      <c r="E5" s="107">
+        <v>17</v>
+      </c>
+      <c r="F5" s="107">
+        <v>10</v>
+      </c>
+      <c r="G5" s="107">
+        <v>20</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="108">
+        <v>15</v>
+      </c>
+      <c r="K5" s="109">
+        <v>88.366049399999994</v>
+      </c>
+      <c r="L5" s="110">
+        <v>5.8852783200000003</v>
+      </c>
+      <c r="M5" s="110">
+        <v>16.999719200000001</v>
+      </c>
+      <c r="N5" s="111">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="O5" s="112">
+        <f>489.534/60</f>
+        <v>8.1588999999999992</v>
+      </c>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="72"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="202"/>
+      <c r="B6" s="117">
+        <v>2</v>
+      </c>
+      <c r="C6" s="105">
+        <v>100</v>
+      </c>
+      <c r="D6" s="73">
+        <v>3</v>
+      </c>
+      <c r="E6" s="73">
+        <v>17</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="73">
+        <v>20</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="69">
+        <v>15</v>
+      </c>
+      <c r="K6" s="118">
+        <v>95.197855277000002</v>
+      </c>
+      <c r="L6" s="114">
+        <v>6.5651488999999996</v>
+      </c>
+      <c r="M6" s="114">
+        <v>16.999566600000001</v>
+      </c>
+      <c r="N6" s="115">
+        <v>5</v>
+      </c>
+      <c r="O6" s="119">
+        <f>490.115/60</f>
+        <v>8.1685833333333342</v>
+      </c>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="72"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="202"/>
+      <c r="B7" s="117">
+        <v>3</v>
+      </c>
+      <c r="C7" s="105">
+        <v>100</v>
+      </c>
+      <c r="D7" s="73">
+        <v>3</v>
+      </c>
+      <c r="E7" s="73">
+        <v>17</v>
+      </c>
+      <c r="F7" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="73">
+        <v>20</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="69">
+        <v>15</v>
+      </c>
+      <c r="K7" s="118">
+        <v>105.26284004999999</v>
+      </c>
+      <c r="L7" s="114">
+        <v>7.4041380999999999</v>
+      </c>
+      <c r="M7" s="114">
+        <v>17.001397699999998</v>
+      </c>
+      <c r="N7" s="115">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="O7" s="119">
+        <f>558.621/60</f>
+        <v>9.3103499999999997</v>
+      </c>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="72"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="202"/>
+      <c r="B8" s="125">
+        <v>4</v>
+      </c>
+      <c r="C8" s="126">
+        <v>100</v>
+      </c>
+      <c r="D8" s="77">
+        <v>3</v>
+      </c>
+      <c r="E8" s="77">
+        <v>17</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="77">
+        <v>20</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="127">
+        <v>15</v>
+      </c>
+      <c r="K8" s="128">
+        <v>96.071537000000006</v>
+      </c>
+      <c r="L8" s="129">
+        <v>6.6451049800000002</v>
+      </c>
+      <c r="M8" s="129">
+        <v>16.999688720000002</v>
+      </c>
+      <c r="N8" s="130">
+        <v>5</v>
+      </c>
+      <c r="O8" s="131">
+        <f>481.8358/60</f>
+        <v>8.0305966666666659</v>
+      </c>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="72"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="202"/>
+      <c r="B9" s="140">
+        <v>5</v>
+      </c>
+      <c r="C9" s="133">
+        <v>100</v>
+      </c>
+      <c r="D9" s="134">
+        <v>3</v>
+      </c>
+      <c r="E9" s="134">
+        <v>17</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="134">
+        <v>20</v>
+      </c>
+      <c r="H9" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="135">
+        <v>15</v>
+      </c>
+      <c r="K9" s="141">
+        <v>107.9726431</v>
+      </c>
+      <c r="L9" s="142">
+        <v>7.6015869</v>
+      </c>
+      <c r="M9" s="142">
+        <v>17.000909400000001</v>
+      </c>
+      <c r="N9" s="143">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="O9" s="144">
+        <f>649.81788/60</f>
+        <v>10.830297999999999</v>
+      </c>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="72"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="199" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="92">
+        <v>1</v>
+      </c>
+      <c r="C10" s="106">
+        <v>100</v>
+      </c>
+      <c r="D10" s="107">
+        <v>3</v>
+      </c>
+      <c r="E10" s="107">
+        <v>17</v>
+      </c>
+      <c r="F10" s="107">
+        <v>10</v>
+      </c>
+      <c r="G10" s="107">
+        <v>20</v>
+      </c>
+      <c r="H10" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="108">
+        <v>15</v>
+      </c>
+      <c r="K10" s="121">
+        <v>120.578000467</v>
+      </c>
+      <c r="L10" s="122">
+        <v>8.1029907226500004</v>
+      </c>
+      <c r="M10" s="122">
+        <v>17.00042114</v>
+      </c>
+      <c r="N10" s="123">
+        <v>4</v>
+      </c>
+      <c r="O10" s="124">
+        <f>534.62/60</f>
+        <v>8.9103333333333339</v>
+      </c>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="72"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="202"/>
+      <c r="B11" s="117">
+        <v>2</v>
+      </c>
+      <c r="C11" s="105">
+        <v>100</v>
+      </c>
+      <c r="D11" s="73">
+        <v>3</v>
+      </c>
+      <c r="E11" s="73">
+        <v>17</v>
+      </c>
+      <c r="F11" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="73">
+        <v>20</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="69">
+        <v>15</v>
+      </c>
+      <c r="K11" s="118">
+        <v>134.41813567</v>
+      </c>
+      <c r="L11" s="114">
+        <v>8.8627559999999992</v>
+      </c>
+      <c r="M11" s="114">
+        <v>17.000756800000001</v>
+      </c>
+      <c r="N11" s="115">
+        <v>7</v>
+      </c>
+      <c r="O11" s="119">
+        <f>849.771/60</f>
+        <v>14.162849999999999</v>
+      </c>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="72"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="202"/>
+      <c r="B12" s="120">
+        <v>3</v>
+      </c>
+      <c r="C12" s="99">
+        <v>100</v>
+      </c>
+      <c r="D12" s="100">
+        <v>3</v>
+      </c>
+      <c r="E12" s="101">
+        <v>17</v>
+      </c>
+      <c r="F12" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="99">
+        <v>20</v>
+      </c>
+      <c r="H12" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="101">
+        <v>15</v>
+      </c>
+      <c r="K12" s="68">
+        <v>160.10810699999999</v>
+      </c>
+      <c r="L12" s="102">
+        <v>9.9069760000000002</v>
+      </c>
+      <c r="M12" s="102">
+        <v>17.001519770000002</v>
+      </c>
+      <c r="N12" s="103">
+        <v>12</v>
+      </c>
+      <c r="O12" s="104">
+        <f>1364.3389/60</f>
+        <v>22.738981666666668</v>
+      </c>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="72"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="202"/>
+      <c r="B13" s="125">
+        <v>4</v>
+      </c>
+      <c r="C13" s="126">
+        <v>100</v>
+      </c>
+      <c r="D13" s="77">
+        <v>3</v>
+      </c>
+      <c r="E13" s="77">
+        <v>17</v>
+      </c>
+      <c r="F13" s="148" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="77">
+        <v>20</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="127">
+        <v>15</v>
+      </c>
+      <c r="K13" s="128">
+        <v>136.05743882100001</v>
+      </c>
+      <c r="L13" s="129">
+        <v>8.942071533</v>
+      </c>
+      <c r="M13" s="129">
+        <v>17.000421142570001</v>
+      </c>
+      <c r="N13" s="130">
+        <v>7</v>
+      </c>
+      <c r="O13" s="131">
+        <f>854.099/60</f>
+        <v>14.234983333333334</v>
+      </c>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="72"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="200"/>
+      <c r="B14" s="132">
+        <v>5</v>
+      </c>
+      <c r="C14" s="133">
+        <v>100</v>
+      </c>
+      <c r="D14" s="134">
+        <v>3</v>
+      </c>
+      <c r="E14" s="134">
+        <v>17</v>
+      </c>
+      <c r="F14" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="134">
+        <v>20</v>
+      </c>
+      <c r="H14" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="135">
+        <v>15</v>
+      </c>
+      <c r="K14" s="136">
+        <v>168.47231199999999</v>
+      </c>
+      <c r="L14" s="137">
+        <v>10.172409999999999</v>
+      </c>
+      <c r="M14" s="137">
+        <v>17.000299070000001</v>
+      </c>
+      <c r="N14" s="138">
+        <v>15</v>
+      </c>
+      <c r="O14" s="139">
+        <f>1699.134/60</f>
+        <v>28.318899999999999</v>
+      </c>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="72"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="202" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="113">
+        <v>1</v>
+      </c>
+      <c r="C15" s="106">
+        <v>100</v>
+      </c>
+      <c r="D15" s="107">
+        <v>3</v>
+      </c>
+      <c r="E15" s="107">
+        <v>17</v>
+      </c>
+      <c r="F15" s="107">
+        <v>10</v>
+      </c>
+      <c r="G15" s="107">
+        <v>20</v>
+      </c>
+      <c r="H15" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="108">
+        <v>15</v>
+      </c>
+      <c r="K15" s="150">
+        <v>336.57375999999999</v>
+      </c>
+      <c r="L15" s="151">
+        <v>2.9998107900000002</v>
+      </c>
+      <c r="M15" s="151">
+        <v>9.8781371999999994</v>
+      </c>
+      <c r="N15" s="152">
+        <v>7</v>
+      </c>
+      <c r="O15" s="153">
+        <f>1065.76/60</f>
+        <v>17.762666666666668</v>
+      </c>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="72"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="202"/>
+      <c r="B16" s="117">
+        <v>2</v>
+      </c>
+      <c r="C16" s="105">
+        <v>100</v>
+      </c>
+      <c r="D16" s="73">
+        <v>3</v>
+      </c>
+      <c r="E16" s="69">
+        <v>17</v>
+      </c>
+      <c r="F16" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="105">
+        <v>20</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="69">
+        <v>15</v>
+      </c>
+      <c r="K16" s="118">
+        <v>277.545728</v>
+      </c>
+      <c r="L16" s="114">
+        <v>2.9998412999999999</v>
+      </c>
+      <c r="M16" s="114">
+        <v>11.075462999999999</v>
+      </c>
+      <c r="N16" s="115">
+        <v>5</v>
+      </c>
+      <c r="O16" s="119">
+        <f>823.855/60</f>
+        <v>13.730916666666667</v>
+      </c>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="72"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="202"/>
+      <c r="B17" s="120">
+        <v>3</v>
+      </c>
+      <c r="C17" s="99">
+        <v>100</v>
+      </c>
+      <c r="D17" s="100">
+        <v>3</v>
+      </c>
+      <c r="E17" s="101">
+        <v>17</v>
+      </c>
+      <c r="F17" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="99">
+        <v>20</v>
+      </c>
+      <c r="H17" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="101">
+        <v>15</v>
+      </c>
+      <c r="K17" s="68">
+        <v>242.8044099</v>
+      </c>
+      <c r="L17" s="102">
+        <v>3.0008178700000001</v>
+      </c>
+      <c r="M17" s="102">
+        <v>12.0220886</v>
+      </c>
+      <c r="N17" s="103">
+        <v>7</v>
+      </c>
+      <c r="O17" s="104">
+        <f>1063.719/60</f>
+        <v>17.728650000000002</v>
+      </c>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="72"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="202"/>
+      <c r="B18" s="125">
+        <v>4</v>
+      </c>
+      <c r="C18" s="126">
+        <v>100</v>
+      </c>
+      <c r="D18" s="77">
+        <v>3</v>
+      </c>
+      <c r="E18" s="77">
+        <v>17</v>
+      </c>
+      <c r="F18" s="148" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="77">
+        <v>20</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="127">
+        <v>15</v>
+      </c>
+      <c r="K18" s="128">
+        <v>272.01112269999999</v>
+      </c>
+      <c r="L18" s="129">
+        <v>2.9992919900000001</v>
+      </c>
+      <c r="M18" s="129">
+        <v>11.238061500000001</v>
+      </c>
+      <c r="N18" s="130">
+        <v>6</v>
+      </c>
+      <c r="O18" s="131">
+        <f>925.8813/60</f>
+        <v>15.431355</v>
+      </c>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="72"/>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="200"/>
+      <c r="B19" s="132">
+        <v>5</v>
+      </c>
+      <c r="C19" s="133">
+        <v>100</v>
+      </c>
+      <c r="D19" s="134">
+        <v>3</v>
+      </c>
+      <c r="E19" s="134">
+        <v>17</v>
+      </c>
+      <c r="F19" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="134">
+        <v>20</v>
+      </c>
+      <c r="H19" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="135">
+        <v>15</v>
+      </c>
+      <c r="K19" s="136">
+        <v>236.62436</v>
+      </c>
+      <c r="L19" s="137">
+        <v>2.99804</v>
+      </c>
+      <c r="M19" s="137">
+        <v>12.244836400000001</v>
+      </c>
+      <c r="N19" s="138">
+        <v>7</v>
+      </c>
+      <c r="O19" s="139">
+        <f>1061.17264/60</f>
+        <v>17.686210666666668</v>
+      </c>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="72"/>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="B22" s="79"/>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="B23" s="67"/>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="B24" s="80"/>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE102609-C43C-495F-BE3F-041EED28965F}">
+  <dimension ref="C5:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="D17:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" ht="60" customHeight="1">
+      <c r="C5" s="207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="207" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="210" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="211"/>
+      <c r="G5" s="212"/>
+      <c r="H5" s="213" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="214"/>
+    </row>
+    <row r="6" spans="3:9" ht="15" customHeight="1">
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="15" customHeight="1">
+      <c r="C7" s="207" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="70">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>126.83</v>
+      </c>
+      <c r="F7" s="21">
+        <v>99.15</v>
+      </c>
+      <c r="G7" s="81">
+        <v>88.37</v>
+      </c>
+      <c r="H7" s="35">
+        <f>($E7-$G7)/$G7 * 100</f>
+        <v>43.521557089510004</v>
+      </c>
+      <c r="I7" s="23">
+        <f>($F7-$G7)/$G7 * 100</f>
+        <v>12.198709969446647</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="208"/>
+      <c r="D8" s="86">
+        <v>2</v>
+      </c>
+      <c r="E8" s="76">
+        <v>143.99</v>
+      </c>
+      <c r="F8" s="56">
+        <v>107.93</v>
+      </c>
+      <c r="G8" s="82">
+        <v>95.197999999999993</v>
+      </c>
+      <c r="H8" s="88">
+        <f>($E8-$G8)/$G8 * 100</f>
+        <v>51.253177587764462</v>
+      </c>
+      <c r="I8" s="74">
+        <f>($F8-$G8)/$G8 * 100</f>
+        <v>13.374230551062013</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="208"/>
+      <c r="D9" s="86">
+        <v>3</v>
+      </c>
+      <c r="E9" s="76">
         <v>184.27</v>
       </c>
-      <c r="C4" s="14">
+      <c r="F9" s="56">
+        <v>121.36</v>
+      </c>
+      <c r="G9" s="82">
+        <v>105.26</v>
+      </c>
+      <c r="H9" s="88">
+        <f>($E9-$G9)/$G9 * 100</f>
+        <v>75.061751852555574</v>
+      </c>
+      <c r="I9" s="74">
+        <f>($F9-$G9)/$G9 * 100</f>
+        <v>15.295458863765907</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="208"/>
+      <c r="D10" s="86">
+        <v>4</v>
+      </c>
+      <c r="E10" s="76">
+        <v>143.99</v>
+      </c>
+      <c r="F10" s="56">
+        <v>107.93</v>
+      </c>
+      <c r="G10" s="83">
+        <v>96.07</v>
+      </c>
+      <c r="H10" s="88">
+        <f>($E10-$G10)/$G10 * 100</f>
+        <v>49.880295617778728</v>
+      </c>
+      <c r="I10" s="74">
+        <f>($F10-$G10)/$G10 * 100</f>
+        <v>12.345164983865946</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="208"/>
+      <c r="D11" s="87">
+        <v>5</v>
+      </c>
+      <c r="E11" s="76">
+        <v>184.27</v>
+      </c>
+      <c r="F11" s="56">
+        <v>121.36</v>
+      </c>
+      <c r="G11" s="84">
+        <v>107.97</v>
+      </c>
+      <c r="H11" s="88">
+        <f>($E11-$G11)/$G11 * 100</f>
+        <v>70.667778086505521</v>
+      </c>
+      <c r="I11" s="74">
+        <f>($F11-$G11)/$G11 * 100</f>
+        <v>12.401593035102344</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="70">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
+        <v>134.93</v>
+      </c>
+      <c r="F12" s="21">
+        <v>126.27</v>
+      </c>
+      <c r="G12" s="81">
+        <v>120.58</v>
+      </c>
+      <c r="H12" s="35">
+        <f>($E12-$G12)/$G12 * 100</f>
+        <v>11.900812738430924</v>
+      </c>
+      <c r="I12" s="23">
+        <f>($F12-$G12)/$G12 * 100</f>
+        <v>4.7188588488969962</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="208"/>
+      <c r="D13" s="86">
+        <v>2</v>
+      </c>
+      <c r="E13" s="76">
+        <v>155.02000000000001</v>
+      </c>
+      <c r="F13" s="56">
+        <v>142.63</v>
+      </c>
+      <c r="G13" s="82">
+        <v>134.41999999999999</v>
+      </c>
+      <c r="H13" s="19">
+        <f>($E13-$G13)/$G13 * 100</f>
+        <v>15.325100431483429</v>
+      </c>
+      <c r="I13" s="75">
+        <f>($F13-$G13)/$G13 * 100</f>
+        <v>6.1077220651688799</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="208"/>
+      <c r="D14" s="86">
+        <v>3</v>
+      </c>
+      <c r="E14" s="76">
+        <v>209.25</v>
+      </c>
+      <c r="F14" s="56">
+        <v>176.06</v>
+      </c>
+      <c r="G14" s="82">
+        <v>160.11000000000001</v>
+      </c>
+      <c r="H14" s="19">
+        <f>($E14-$G14)/$G14 * 100</f>
+        <v>30.691399662731861</v>
+      </c>
+      <c r="I14" s="75">
+        <f>($F14-$G14)/$G14 * 100</f>
+        <v>9.9619011929298527</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="208"/>
+      <c r="D15" s="86">
+        <v>4</v>
+      </c>
+      <c r="E15" s="76">
+        <v>155.02000000000001</v>
+      </c>
+      <c r="F15" s="56">
+        <v>142.63</v>
+      </c>
+      <c r="G15" s="83">
+        <v>136.06</v>
+      </c>
+      <c r="H15" s="19">
+        <f>($E15-$G15)/$G15 * 100</f>
+        <v>13.935028663824788</v>
+      </c>
+      <c r="I15" s="75">
+        <f>($F15-$G15)/$G15 * 100</f>
+        <v>4.8287520211671273</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="208"/>
+      <c r="D16" s="87">
+        <v>5</v>
+      </c>
+      <c r="E16" s="27">
+        <v>209.25</v>
+      </c>
+      <c r="F16" s="28">
+        <v>176.06</v>
+      </c>
+      <c r="G16" s="84">
+        <v>168.47</v>
+      </c>
+      <c r="H16" s="36">
+        <f>($E16-$G16)/$G16 * 100</f>
+        <v>24.206090105063215</v>
+      </c>
+      <c r="I16" s="29">
+        <f>($F16-$G16)/$G16 * 100</f>
+        <v>4.5052531608001445</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="15" customHeight="1">
+      <c r="C17" s="207" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="70">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>349.46</v>
+      </c>
+      <c r="F17" s="21">
+        <v>347.27</v>
+      </c>
+      <c r="G17" s="81">
+        <v>336.57</v>
+      </c>
+      <c r="H17" s="35">
+        <f>($E17-$G17)/$G17 * 100</f>
+        <v>3.8298125204266529</v>
+      </c>
+      <c r="I17" s="23">
+        <f>($F17-$G17)/$G17 * 100</f>
+        <v>3.1791306414713101</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="208"/>
+      <c r="D18" s="86">
+        <v>2</v>
+      </c>
+      <c r="E18" s="76">
+        <v>277.85000000000002</v>
+      </c>
+      <c r="F18" s="57">
+        <v>275.87</v>
+      </c>
+      <c r="G18" s="82">
+        <v>277.55</v>
+      </c>
+      <c r="H18" s="19">
+        <f>($E18-$G18)/$G18 * 100</f>
+        <v>0.10808863267880071</v>
+      </c>
+      <c r="I18" s="75">
+        <f>($F18-$G18)/$G18 * 100</f>
+        <v>-0.60529634300126345</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="208"/>
+      <c r="D19" s="86">
+        <v>3</v>
+      </c>
+      <c r="E19" s="76">
+        <v>240.57</v>
+      </c>
+      <c r="F19" s="56">
+        <v>239.86</v>
+      </c>
+      <c r="G19" s="82">
+        <v>242.8</v>
+      </c>
+      <c r="H19" s="19">
+        <f>($E19-$G19)/$G19 * 100</f>
+        <v>-0.91845140032949679</v>
+      </c>
+      <c r="I19" s="75">
+        <f>($F19-$G19)/$G19 * 100</f>
+        <v>-1.2108731466227338</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="208"/>
+      <c r="D20" s="86">
+        <v>4</v>
+      </c>
+      <c r="E20" s="76">
+        <v>277.85000000000002</v>
+      </c>
+      <c r="F20" s="57">
+        <v>275.87</v>
+      </c>
+      <c r="G20" s="83">
+        <v>272.01</v>
+      </c>
+      <c r="H20" s="19">
+        <f>($E20-$G20)/$G20 * 100</f>
+        <v>2.1469798904452162</v>
+      </c>
+      <c r="I20" s="75">
+        <f>($F20-$G20)/$G20 * 100</f>
+        <v>1.4190654755339929</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="209"/>
+      <c r="D21" s="145">
+        <v>5</v>
+      </c>
+      <c r="E21" s="16">
+        <v>240.57</v>
+      </c>
+      <c r="F21" s="17">
+        <v>239.86</v>
+      </c>
+      <c r="G21" s="85">
+        <v>236.62</v>
+      </c>
+      <c r="H21" s="20">
+        <f>($E21-$G21)/$G21 * 100</f>
+        <v>1.6693432507818395</v>
+      </c>
+      <c r="I21" s="18">
+        <f>($F21-$G21)/$G21 * 100</f>
+        <v>1.3692840841856178</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="72"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="79"/>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="72"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="67"/>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="72"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="80"/>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963B1987-BEB2-4A64-914E-43D4464ACA27}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="12" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1"/>
+    <row r="2" spans="1:9" ht="15" thickBot="1">
+      <c r="B2" s="215" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1">
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>184.27</v>
+      </c>
+      <c r="C4" s="10">
         <v>6.55</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6">
         <v>209.25</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>14.44</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11">
+    <row r="6" spans="1:9" ht="15" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7">
         <v>240.57</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="14">
         <v>3.97</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9">
+    <row r="7" spans="1:9" ht="15" thickBot="1"/>
+    <row r="8" spans="1:9" ht="15" thickBot="1">
+      <c r="B8" s="215" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="215" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="217"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1">
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
         <v>118.13</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>6.39</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>27.33</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <v>118.17</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>5.3</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>0.14499999999999999</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="11">
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="10">
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
         <v>173.7</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="12">
         <v>15.72</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="12">
         <v>0.157</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="13">
         <v>41.1</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>173.44</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="12">
         <v>13.78</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="12">
         <v>0.16700000000000001</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <v>25.9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11">
+    <row r="12" spans="1:9" ht="15" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
         <v>239.8</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <v>12.77</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>134.87</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="7">
         <v>239.8</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="14">
         <v>10.220000000000001</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="15">
         <v>79.132999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+    <row r="13" spans="1:9" ht="15" thickBot="1"/>
+    <row r="14" spans="1:9" ht="15" thickBot="1">
+      <c r="B14" s="215" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="216"/>
+      <c r="D14" s="217"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1">
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1326,20 +6335,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC73191E-3939-4283-8B50-B1DE03F771C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>